--- a/Data/Test.xlsx
+++ b/Data/Test.xlsx
@@ -380,7 +380,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
